--- a/orphanageCompleteDocument2.xlsx
+++ b/orphanageCompleteDocument2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_FOLDER\CompleteDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F7FB0-AB39-411A-B600-1FD4E871C3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CBB1F4-F2BC-435B-915E-3F74529E0DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donation" sheetId="1" r:id="rId1"/>
-    <sheet name="PurchasePlane" sheetId="2" r:id="rId2"/>
-    <sheet name="Purchased" sheetId="3" r:id="rId3"/>
-    <sheet name="BalanceSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Purchased" sheetId="3" r:id="rId2"/>
+    <sheet name="BalanceSheet" sheetId="4" r:id="rId3"/>
+    <sheet name="PurchasePlane" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>sno</t>
   </si>
@@ -358,6 +358,24 @@
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t>AmountToPurchaseGroceries(lucy mam)</t>
+  </si>
+  <si>
+    <t>Vinoth</t>
+  </si>
+  <si>
+    <t>Vekatesh tech group</t>
+  </si>
+  <si>
+    <t>Saravanan anna</t>
+  </si>
+  <si>
+    <t>Mathi vathana</t>
+  </si>
+  <si>
+    <t>vankateshjarjapu</t>
   </si>
 </sst>
 </file>
@@ -676,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1485,12 +1503,1178 @@
         <v>103</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43772</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43772</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43772</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43772</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43772</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43773</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43773</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43773</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43773</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43773</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C591F-7EDE-4178-82B4-11F8C523D1E2}">
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>405</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>320</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>207</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>203</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>366</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>367</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>185</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>485</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="H19">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>227</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>266</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1089</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2401</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>390</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43757</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>405</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43759</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>761</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5600</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <f t="shared" ref="F67:F83" si="1">D67*E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3417726-480D-4A98-867E-AD3E39D1920B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Donation!D2:D46)</f>
+        <v>18450</v>
+      </c>
+      <c r="C2">
+        <f>SUM(Purchased!F2:F50)</f>
+        <v>14810</v>
+      </c>
+      <c r="D2">
+        <f>ROUNDDOWN(B2-C2,2)</f>
+        <v>3640</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A459F0F-F0B2-4915-A0D4-A2B92FE2BAA3}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1738,991 +2922,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C591F-7EDE-4178-82B4-11F8C523D1E2}">
-  <dimension ref="A1:H83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <f>D2*E2</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>67</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>256</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>48</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>110</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>405</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>320</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>207</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>203</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>366</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>367</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>185</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43751</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>98</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43755</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>485</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>485</v>
-      </c>
-      <c r="H19">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>227</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>266</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1089</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1089</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2401</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>2401</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>390</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43757</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>405</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43759</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>761</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>761</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F67">
-        <f t="shared" ref="F67:F83" si="1">D67*E67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3417726-480D-4A98-867E-AD3E39D1920B}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>43759</v>
-      </c>
-      <c r="B2">
-        <f>SUM(Donation!D2:D46)</f>
-        <v>18450</v>
-      </c>
-      <c r="C2">
-        <f>SUM(Purchased!F2:F26)</f>
-        <v>9210</v>
-      </c>
-      <c r="D2">
-        <f>ROUNDDOWN(B2-C2,2)</f>
-        <v>9240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>